--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
@@ -540,7 +540,7 @@
         <v>0.7997108917301441</v>
       </c>
       <c r="J2">
-        <v>0.7997108917301441</v>
+        <v>0.7997108917301442</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -570,7 +570,7 @@
         <v>0.7997108917301441</v>
       </c>
       <c r="T2">
-        <v>0.7997108917301441</v>
+        <v>0.7997108917301442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09528066666666668</v>
+        <v>0.09528066666666667</v>
       </c>
       <c r="H3">
         <v>0.285842</v>
